--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/SRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE5CC08-10A0-426E-8A34-E5038BEE56EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CCE5CC08-10A0-426E-8A34-E5038BEE56EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8102BAC5-5EE1-49E5-9506-63F6263C6EF4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="1" activeTab="4" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ereignis beschreiben" sheetId="1" r:id="rId1"/>
@@ -120,15 +120,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,19 +143,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,14 +174,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +506,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,29 +520,29 @@
     <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -536,6 +559,9 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="3">
+        <v>0.10069444444444443</v>
+      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
@@ -576,7 +602,7 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.43055555555555558</v>
       </c>
       <c r="F4" s="1">
@@ -656,14 +682,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -676,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56479C06-2A64-4450-B6E9-9F145B8B8E66}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,32 +718,32 @@
     <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -857,17 +883,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -881,7 +907,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,20 +915,20 @@
     <col min="1" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1018,14 +1044,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1039,7 +1065,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,32 +1080,32 @@
     <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1219,14 +1245,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1239,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D10569-68A3-42CA-ADB2-1601435256D4}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,26 +1279,26 @@
     <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1406,14 +1432,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1427,7 +1453,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,32 +1468,32 @@
     <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1589,14 +1615,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1610,7 +1636,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,20 +1646,20 @@
     <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1743,14 +1769,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1764,7 +1790,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,32 +1805,32 @@
     <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1941,14 +1967,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1962,7 +1988,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,20 +1998,20 @@
     <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2095,14 +2121,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
